--- a/biology/Botanique/Pae’ore/Pae’ore.xlsx
+++ b/biology/Botanique/Pae’ore/Pae’ore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pae%E2%80%99ore</t>
+          <t>Pae’ore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pae’ore [pɛ?oRe], aussi orthographié en tahitien paeòre ou incorrectement paeore, est une variété de pandanus sans épines, dont les feuilles sont utilisées pour le tressage et constituées en rouleaux pour fabriquer des supports utilisés dans la confections de costumes de danse tahitienne.
 </t>
